--- a/uploadFile/excels/广西规模以上工业企业复工情况表.xlsx
+++ b/uploadFile/excels/广西规模以上工业企业复工情况表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11800"/>
+    <workbookView windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋_GB2312"/>
+        <charset val="134"/>
+      </rPr>
       <t>截至</t>
     </r>
     <r>
@@ -47,7 +54,7 @@
     <t>比上日新增复工企业数（家）</t>
   </si>
   <si>
-    <t>统计企业数</t>
+    <t>统计企业数（家）</t>
   </si>
   <si>
     <t>复工企业数（家）</t>
@@ -57,6 +64,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋_GB2312"/>
+        <charset val="134"/>
+      </rPr>
       <t>正常生产人数</t>
     </r>
     <r>
@@ -95,6 +109,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋_GB2312"/>
+        <charset val="134"/>
+      </rPr>
       <t>复产</t>
     </r>
     <r>
@@ -160,9 +181,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -199,20 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -221,8 +228,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,16 +319,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,82 +356,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -345,25 +366,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,157 +540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,17 +650,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,28 +685,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,157 +714,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,9 +896,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1214,7 +1232,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -1262,401 +1280,401 @@
     </row>
     <row r="3" ht="18.35" spans="1:8">
       <c r="A3" s="1"/>
-      <c r="B3" s="6"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="18.35" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>6155</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>3153</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>51.2</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>109.3</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>51.5</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>47.1</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>252</v>
       </c>
     </row>
     <row r="5" ht="18.35" spans="1:8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>1005</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>597</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>59.4</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>17.7</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>7.9</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>44.6</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>26</v>
       </c>
     </row>
     <row r="6" ht="18.35" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>942</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>545</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>57.9</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>22</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>11</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>50</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18.35" spans="1:8">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>480</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>290</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>60.4</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>8.6</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>3.8</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>44.2</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>19</v>
       </c>
     </row>
     <row r="8" ht="18.35" spans="1:8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>422</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>236</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>55.9</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>9.3</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>2.6</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>28</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>41</v>
       </c>
     </row>
     <row r="9" ht="18.35" spans="1:8">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>264</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>83</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>31.4</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>6.2</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>1.7</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>27.4</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="26.75" spans="1:8">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>148</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>65</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>43.9</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>3.3</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>2.1</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>63.6</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="11" ht="18.35" spans="1:8">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>313</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>75</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>24</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>5.2</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>1.2</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>23.1</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="12" ht="18.35" spans="1:8">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>694</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>345</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>49.7</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>7</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>3</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>42.9</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>49</v>
       </c>
     </row>
     <row r="13" ht="18.35" spans="1:8">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>534</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>281</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>52.6</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>7.4</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>4.1</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>55.4</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="14" ht="18.35" spans="1:8">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>356</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>212</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>59.6</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>7.7</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>6.1</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>79.2</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>23</v>
       </c>
     </row>
     <row r="15" ht="18.35" spans="1:8">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>237</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>139</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>58.6</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>3.1</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>1.3</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>41.9</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="16" ht="18.35" spans="1:8">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>221</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>93</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>42.1</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>3.8</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>1.8</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>47.4</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="17" ht="18.35" spans="1:8">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>226</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>100</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>44.2</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>3.5</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>1.7</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>48.6</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="18" ht="18.35" spans="1:8">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>313</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>92</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>29.4</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>4.5</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>3.2</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>71.1</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>2</v>
       </c>
     </row>
